--- a/master_research/results/21x21/21x21.xlsx
+++ b/master_research/results/21x21/21x21.xlsx
@@ -1,43 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univtokyo-my.sharepoint.com/personal/8252598822_utac_u-tokyo_ac_jp/Documents/research/master_research/results/21x21/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_6A69D6BF87205E73179A2711597FC03245DBFB9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{662B6DA7-47AB-4D58-88B4-094487DBBFF7}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+  <si>
+    <t>f_weight</t>
+  </si>
+  <si>
+    <t>IW</t>
+  </si>
+  <si>
+    <t>WR</t>
+  </si>
+  <si>
+    <t>n_agent</t>
+  </si>
+  <si>
+    <t>heuristic</t>
+  </si>
+  <si>
+    <t>hash_structure</t>
+  </si>
+  <si>
+    <t>pre-pruning</t>
+  </si>
+  <si>
+    <t>pre-processing_time</t>
+  </si>
+  <si>
+    <t>running_time</t>
+  </si>
+  <si>
+    <t>expands</t>
+  </si>
+  <si>
+    <t>avg_max_paths</t>
+  </si>
+  <si>
+    <t>avg_sum_paths</t>
+  </si>
+  <si>
+    <t>minmax_std</t>
+  </si>
+  <si>
+    <t>minsum_std</t>
+  </si>
+  <si>
+    <t>agg_h</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
+    <t>per</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -46,94 +135,175 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,288 +590,666 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>f_weight</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>IW</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>WR</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>n_agent</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>heuristic</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>hash_structure</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pre-pruning</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pre-processing_time</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>running_time</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>expands</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>avg_max_paths</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>avg_sum_paths</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>minmax_std</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>minsum_std</t>
-        </is>
+    <row r="1" spans="1:16" ht="14.25" thickBot="1">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:16">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="C2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
         <v>3</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9">
         <v>0.2316283999998632</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="10">
         <v>552.8792739999999</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="10">
         <v>739.9666666666667</v>
       </c>
-      <c r="L2" t="n">
-        <v>83.43300000000001</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2" s="10">
+        <v>83.433000000000007</v>
+      </c>
+      <c r="M2" s="10">
         <v>229.2</v>
       </c>
-      <c r="N2" t="n">
-        <v>7.949</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="N2" s="10">
+        <v>7.9489999999999998</v>
+      </c>
+      <c r="O2" s="10">
         <v>15.846</v>
       </c>
+      <c r="P2" s="11">
+        <f>J2/30</f>
+        <v>18.42930913333333</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:16">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="C3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2353443000029074</v>
+      </c>
+      <c r="J3" s="13">
+        <v>90.351650299999164</v>
+      </c>
+      <c r="K3" s="13">
+        <v>487.56666666666672</v>
+      </c>
+      <c r="L3" s="13">
+        <v>85.033000000000001</v>
+      </c>
+      <c r="M3" s="13">
+        <v>234.4</v>
+      </c>
+      <c r="N3" s="13">
+        <v>8.6240000000000006</v>
+      </c>
+      <c r="O3" s="13">
+        <v>18.227</v>
+      </c>
+      <c r="P3" s="14">
+        <f t="shared" ref="P3:P13" si="0">J3/30</f>
+        <v>3.0117216766666388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="15">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.31255180000152899</v>
+      </c>
+      <c r="J4" s="17">
+        <v>103.1560848000008</v>
+      </c>
+      <c r="K4" s="17">
+        <v>439.7</v>
+      </c>
+      <c r="L4" s="17">
+        <v>82.667000000000002</v>
+      </c>
+      <c r="M4" s="17">
+        <v>229.333</v>
+      </c>
+      <c r="N4" s="17">
+        <v>6.2949999999999999</v>
+      </c>
+      <c r="O4" s="17">
+        <v>17.827999999999999</v>
+      </c>
+      <c r="P4" s="18">
+        <f t="shared" si="0"/>
+        <v>3.4385361600000266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
         <v>4</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9">
         <v>0.21428509999987</v>
       </c>
-      <c r="J3" t="n">
-        <v>106.2441847</v>
-      </c>
-      <c r="K3" t="n">
-        <v>551.1333333333333</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="J5" s="10">
+        <v>106.24418470000001</v>
+      </c>
+      <c r="K5" s="10">
+        <v>551.13333333333333</v>
+      </c>
+      <c r="L5" s="10">
         <v>65.2</v>
       </c>
-      <c r="M3" t="n">
-        <v>215.467</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7.591</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="M5" s="10">
+        <v>215.46700000000001</v>
+      </c>
+      <c r="N5" s="10">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="O5" s="10">
         <v>16.98</v>
       </c>
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5414728233333337</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="6" spans="1:16">
+      <c r="B6" s="12">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.362454300004174</v>
+      </c>
+      <c r="J6" s="13">
+        <v>61.238638899994839</v>
+      </c>
+      <c r="K6" s="13">
+        <v>560.5</v>
+      </c>
+      <c r="L6" s="13">
+        <v>67.167000000000002</v>
+      </c>
+      <c r="M6" s="13">
+        <v>222.4</v>
+      </c>
+      <c r="N6" s="13">
+        <v>9.6159999999999997</v>
+      </c>
+      <c r="O6" s="13">
+        <v>18.748999999999999</v>
+      </c>
+      <c r="P6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0412879633331613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14.25" thickBot="1">
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0.23584099999425229</v>
+      </c>
+      <c r="J7" s="17">
+        <v>44.560823300002077</v>
+      </c>
+      <c r="K7" s="17">
+        <v>422.4</v>
+      </c>
+      <c r="L7" s="17">
+        <v>64.332999999999998</v>
+      </c>
+      <c r="M7" s="17">
+        <v>216.333</v>
+      </c>
+      <c r="N7" s="17">
+        <v>7.79</v>
+      </c>
+      <c r="O7" s="17">
+        <v>19.178999999999998</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" si="0"/>
+        <v>1.4853607766667358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B8" s="8">
         <v>10</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="C8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2140468999996301</v>
-      </c>
-      <c r="J4" t="n">
-        <v>78.49702230000003</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1006.433333333333</v>
-      </c>
-      <c r="L4" t="n">
-        <v>52.667</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.21404689999963011</v>
+      </c>
+      <c r="J8" s="10">
+        <v>78.497022300000026</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1006.4333333333331</v>
+      </c>
+      <c r="L8" s="10">
+        <v>52.667000000000002</v>
+      </c>
+      <c r="M8" s="10">
         <v>214.2</v>
       </c>
-      <c r="N4" t="n">
-        <v>8.522</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="N8" s="10">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="O8" s="10">
         <v>17.91</v>
       </c>
+      <c r="P8" s="11">
+        <f t="shared" si="0"/>
+        <v>2.6165674100000009</v>
+      </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="9" spans="1:16">
+      <c r="B9" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.22513720000279139</v>
+      </c>
+      <c r="J9" s="13">
+        <v>46.807731599998078</v>
+      </c>
+      <c r="K9" s="13">
+        <v>486.56666666666672</v>
+      </c>
+      <c r="L9" s="13">
+        <v>53.633000000000003</v>
+      </c>
+      <c r="M9" s="13">
+        <v>216.93299999999999</v>
+      </c>
+      <c r="N9" s="13">
+        <v>8.5220000000000002</v>
+      </c>
+      <c r="O9" s="13">
+        <v>18.745999999999999</v>
+      </c>
+      <c r="P9" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5602577199999359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14.25" thickBot="1">
+      <c r="B10" s="15">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>5</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.24587730000348529</v>
+      </c>
+      <c r="J10" s="17">
+        <v>77.210562000000209</v>
+      </c>
+      <c r="K10" s="17">
+        <v>960.8</v>
+      </c>
+      <c r="L10" s="17">
+        <v>53.567</v>
+      </c>
+      <c r="M10" s="17">
+        <v>215.333</v>
+      </c>
+      <c r="N10" s="17">
+        <v>8.3130000000000006</v>
+      </c>
+      <c r="O10" s="17">
+        <v>17.771000000000001</v>
+      </c>
+      <c r="P10" s="18">
+        <f t="shared" si="0"/>
+        <v>2.5736854000000071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B11" s="8">
         <v>10</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
         <v>6</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>agg_h</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2139817999996012</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.21398179999960121</v>
+      </c>
+      <c r="J11" s="10">
         <v>108.6931471999997</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K11" s="10">
         <v>1866.366666666667</v>
       </c>
-      <c r="L5" t="n">
-        <v>44.033</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L11" s="10">
+        <v>44.033000000000001</v>
+      </c>
+      <c r="M11" s="10">
         <v>208.2</v>
       </c>
-      <c r="N5" t="n">
-        <v>7.199</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="N11" s="10">
+        <v>7.1989999999999998</v>
+      </c>
+      <c r="O11" s="10">
         <v>17.843</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="0"/>
+        <v>3.6231049066666565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="2"/>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.23038380000070899</v>
+      </c>
+      <c r="J12" s="13">
+        <v>69.987095500000578</v>
+      </c>
+      <c r="K12" s="13">
+        <v>879.66666666666663</v>
+      </c>
+      <c r="L12" s="13">
+        <v>45.1</v>
+      </c>
+      <c r="M12" s="13">
+        <v>211.06700000000001</v>
+      </c>
+      <c r="N12" s="13">
+        <v>7.8029999999999999</v>
+      </c>
+      <c r="O12" s="13">
+        <v>20.831</v>
+      </c>
+      <c r="P12" s="14">
+        <f t="shared" si="0"/>
+        <v>2.3329031833333524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14.25" thickBot="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="15">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>6</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.23408650000055789</v>
+      </c>
+      <c r="J13" s="17">
+        <v>133.2176921999999</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1942.7</v>
+      </c>
+      <c r="L13" s="17">
+        <v>45.567</v>
+      </c>
+      <c r="M13" s="17">
+        <v>209.13300000000001</v>
+      </c>
+      <c r="N13" s="17">
+        <v>8.9090000000000007</v>
+      </c>
+      <c r="O13" s="17">
+        <v>20.664000000000001</v>
+      </c>
+      <c r="P13" s="18">
+        <f t="shared" si="0"/>
+        <v>4.4405897399999965</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O13">
+    <sortCondition ref="E2:E13"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>